--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjames2\OneDrive - Department for Education\Documents\RProjects\lsip_dashboard\Data\3-1_DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2860D04-B9BE-4882-B709-F6C7125360C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C78FD9-0072-45AD-800C-2B85D8C1B606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>Data​</t>
   </si>
@@ -53,9 +53,6 @@
     <t>&lt;a href='https://www.nomisweb.co.uk/datasets/apsnew'&gt;Annual Population Survey&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Oct 2021 - Sep 2022 (17/01/23)</t>
-  </si>
-  <si>
     <t>To be announced</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t>Jan 2021 - Dec 2021 (12/04/22)</t>
   </si>
   <si>
-    <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-catalogue/further-education-and-skills/2021-22'&gt;Individualised Learner Record&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Aug 2021 – Jul 2022 (24/11/22)</t>
   </si>
   <si>
@@ -159,6 +153,27 @@
   </si>
   <si>
     <t>Aug 2022 – Jul 2023 (Nov 23)</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-catalogue/further-education-and-skills/2022-23'&gt;Individualised Learner Record&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Aug 2021 – Jul 2022 (31/03/23)</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.nomisweb.co.uk/livelinks/16244.xlsx'&gt;Annual Population Survey&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.nomisweb.co.uk/livelinks/16243.xlsx'&gt;Annual Population Survey&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.nomisweb.co.uk/livelinks/16246.xlsx'&gt;ONS UK Business Counts&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>TBC</t>
+  </si>
+  <si>
+    <t>Apr 2022 - Mar 2023 (11/06/23)</t>
   </si>
 </sst>
 </file>
@@ -545,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6050695-7AD5-4EAF-ACCC-796FB129457A}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -572,184 +587,184 @@
     </row>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjames2\OneDrive - Department for Education\Documents\RProjects\lsip_dashboard\Data\3-1_DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C78FD9-0072-45AD-800C-2B85D8C1B606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C330184-E784-4036-AC60-C05B5A211A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>Data​</t>
   </si>
@@ -170,10 +170,13 @@
     <t>&lt;a href='https://www.nomisweb.co.uk/livelinks/16246.xlsx'&gt;ONS UK Business Counts&lt;/a&gt;</t>
   </si>
   <si>
-    <t>TBC</t>
-  </si>
-  <si>
     <t>Apr 2022 - Mar 2023 (11/06/23)</t>
+  </si>
+  <si>
+    <t>TBC depending on ONS resolving the SOC coding issue</t>
+  </si>
+  <si>
+    <t>TBC depending on ONS recoding the qualification framework.</t>
   </si>
 </sst>
 </file>
@@ -561,7 +564,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -596,7 +599,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
@@ -610,7 +613,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -624,7 +627,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -666,7 +669,7 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjames2\OneDrive - Department for Education\Documents\RProjects\lsip_dashboard\Data\3-1_DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C330184-E784-4036-AC60-C05B5A211A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EC2F3D-0579-4D6A-979D-A968ADC9AB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
+    <workbookView xWindow="20" yWindow="600" windowWidth="22540" windowHeight="14440" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -161,12 +161,6 @@
     <t>Aug 2021 – Jul 2022 (31/03/23)</t>
   </si>
   <si>
-    <t>&lt;a href='https://www.nomisweb.co.uk/livelinks/16244.xlsx'&gt;Annual Population Survey&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.nomisweb.co.uk/livelinks/16243.xlsx'&gt;Annual Population Survey&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>&lt;a href='https://www.nomisweb.co.uk/livelinks/16246.xlsx'&gt;ONS UK Business Counts&lt;/a&gt;</t>
   </si>
   <si>
@@ -177,6 +171,12 @@
   </si>
   <si>
     <t>TBC depending on ONS recoding the qualification framework.</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.nomisweb.co.uk/livelinks/16244.xlsx'&gt;Annual Population Survey (direct download)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.nomisweb.co.uk/livelinks/16243.xlsx'&gt;Annual Population Survey (direct download)&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -564,7 +564,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -593,13 +593,13 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
@@ -613,7 +613,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -621,13 +621,13 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -669,7 +669,7 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -677,7 +677,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjames2\OneDrive - Department for Education\Documents\RProjects\lsip_dashboard\Data\3-1_DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EC2F3D-0579-4D6A-979D-A968ADC9AB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDED576E-BB1A-4BAC-8E31-5A3EE1E571AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="600" windowWidth="22540" windowHeight="14440" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -164,9 +164,6 @@
     <t>&lt;a href='https://www.nomisweb.co.uk/livelinks/16246.xlsx'&gt;ONS UK Business Counts&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Apr 2022 - Mar 2023 (11/06/23)</t>
-  </si>
-  <si>
     <t>TBC depending on ONS resolving the SOC coding issue</t>
   </si>
   <si>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>&lt;a href='https://www.nomisweb.co.uk/livelinks/16243.xlsx'&gt;Annual Population Survey (direct download)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Apr 2022 - Mar 2023 (11/07/23)</t>
   </si>
 </sst>
 </file>
@@ -564,7 +564,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -593,13 +593,13 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
@@ -613,7 +613,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -621,13 +621,13 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -669,7 +669,7 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjames2\OneDrive - Department for Education\Documents\RProjects\lsip_dashboard\Data\3-1_DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDED576E-BB1A-4BAC-8E31-5A3EE1E571AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{FDED576E-BB1A-4BAC-8E31-5A3EE1E571AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36A67C19-DECB-4C24-B62E-0E2BB0634240}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>Data​</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Further education and skills achievements by sector subject area</t>
   </si>
   <si>
-    <t>Jan 2021 - Dec 2021 (12/04/22)</t>
-  </si>
-  <si>
     <t>Aug 2021 – Jul 2022 (24/11/22)</t>
   </si>
   <si>
@@ -164,9 +161,6 @@
     <t>&lt;a href='https://www.nomisweb.co.uk/livelinks/16246.xlsx'&gt;ONS UK Business Counts&lt;/a&gt;</t>
   </si>
   <si>
-    <t>TBC depending on ONS resolving the SOC coding issue</t>
-  </si>
-  <si>
     <t>TBC depending on ONS recoding the qualification framework.</t>
   </si>
   <si>
@@ -176,7 +170,10 @@
     <t>&lt;a href='https://www.nomisweb.co.uk/livelinks/16243.xlsx'&gt;Annual Population Survey (direct download)&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Apr 2022 - Mar 2023 (11/07/23)</t>
+    <t>Apr 2022 - Mar 2023 (15/08/23)</t>
+  </si>
+  <si>
+    <t>Jan 2022 - Dec 2022 (07/23)</t>
   </si>
 </sst>
 </file>
@@ -238,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -246,7 +243,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,58 +586,58 @@
     </row>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
         <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
+      <c r="C3" t="s">
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -649,108 +645,108 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
         <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
         <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
       <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
         <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -758,13 +754,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
         <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{FDED576E-BB1A-4BAC-8E31-5A3EE1E571AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36A67C19-DECB-4C24-B62E-0E2BB0634240}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{FDED576E-BB1A-4BAC-8E31-5A3EE1E571AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{774D4C53-4EF7-4013-9F86-748BD81FFF31}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>Data​</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Jan 2021 - Dec 2021 (20/04/22)</t>
   </si>
   <si>
-    <t>Jan 2022 - Dec 2022 (19/04/23)</t>
-  </si>
-  <si>
     <t>Key Stage 4 (KS4) destinations</t>
   </si>
   <si>
@@ -164,16 +161,10 @@
     <t>TBC depending on ONS recoding the qualification framework.</t>
   </si>
   <si>
-    <t>&lt;a href='https://www.nomisweb.co.uk/livelinks/16244.xlsx'&gt;Annual Population Survey (direct download)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.nomisweb.co.uk/livelinks/16243.xlsx'&gt;Annual Population Survey (direct download)&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Apr 2022 - Mar 2023 (15/08/23)</t>
   </si>
   <si>
-    <t>Jan 2022 - Dec 2022 (07/23)</t>
+    <t>Jul 2022 - Jun 2023 (17/10/23)</t>
   </si>
 </sst>
 </file>
@@ -560,12 +551,12 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="174.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="86.7265625" customWidth="1"/>
     <col min="2" max="2" width="39.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.36328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -586,30 +577,30 @@
     </row>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
         <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -617,27 +608,27 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -651,7 +642,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -665,7 +656,7 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -673,7 +664,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -684,7 +675,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -712,30 +703,30 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
@@ -743,10 +734,10 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -754,13 +745,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
         <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{FDED576E-BB1A-4BAC-8E31-5A3EE1E571AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{774D4C53-4EF7-4013-9F86-748BD81FFF31}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{FDED576E-BB1A-4BAC-8E31-5A3EE1E571AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47A26503-18DE-452F-91AA-9A7DCDE7F944}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>Data​</t>
   </si>
@@ -65,12 +65,6 @@
     <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-tables/permalink/cae2bcbb-e385-4da7-8d7b-08dacbbccc68'&gt;Individualised Learner Record&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Mar 2022 (28/09/22)</t>
-  </si>
-  <si>
-    <t>Mar 2023 (03/10/23)</t>
-  </si>
-  <si>
     <t>Employment by industry</t>
   </si>
   <si>
@@ -155,9 +149,6 @@
     <t>Aug 2021 – Jul 2022 (31/03/23)</t>
   </si>
   <si>
-    <t>&lt;a href='https://www.nomisweb.co.uk/livelinks/16246.xlsx'&gt;ONS UK Business Counts&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>TBC depending on ONS recoding the qualification framework.</t>
   </si>
   <si>
@@ -165,6 +156,12 @@
   </si>
   <si>
     <t>Jul 2022 - Jun 2023 (17/10/23)</t>
+  </si>
+  <si>
+    <t>Mar 2023 (27/09/23)</t>
+  </si>
+  <si>
+    <t>Mar 2024 (09/24)</t>
   </si>
 </sst>
 </file>
@@ -551,7 +548,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -577,58 +574,58 @@
     </row>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -642,102 +639,102 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -745,13 +742,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{FDED576E-BB1A-4BAC-8E31-5A3EE1E571AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47A26503-18DE-452F-91AA-9A7DCDE7F944}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{FDED576E-BB1A-4BAC-8E31-5A3EE1E571AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96E49CD0-0C79-4EB6-9226-47294B224AAE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
@@ -101,18 +101,6 @@
     <t>Key Stage 5 (KS5) destinations</t>
   </si>
   <si>
-    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/data-tables/permalink/1683bef5-5daa-49d7-9323-08db08498a11'&gt;National Pupil Database&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/data-tables/permalink/1703fe2c-2e57-4bfe-9325-08db08498a11'&gt;National Pupil Database&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Aug 2020 -  Jul 2021 (19/20 learners) (02/02/23)</t>
-  </si>
-  <si>
-    <t>Aug 2021 -  Jul 2022 (20/21 learners) (Oct 23)</t>
-  </si>
-  <si>
     <t>Dec 2022 (13/02/23)</t>
   </si>
   <si>
@@ -162,6 +150,18 @@
   </si>
   <si>
     <t>Mar 2024 (09/24)</t>
+  </si>
+  <si>
+    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/data-tables/permalink/f5995891-4e9a-439d-0d58-08dbd1400c33'&gt;National Pupil Database&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Aug 2021 -  Jul 2022 (20/21 learners) (19/10/23)</t>
+  </si>
+  <si>
+    <t>Aug 2022 -  Jul 2023 (21/22 learners) (Oct 24)</t>
+  </si>
+  <si>
+    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/data-tables/permalink/b0424f32-b140-44a8-a039-08dbd1466a44'&gt;National Pupil Database&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -548,7 +548,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -574,30 +574,30 @@
     </row>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -608,24 +608,24 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
         <v>30</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -639,7 +639,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -653,7 +653,7 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -664,24 +664,24 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -703,13 +703,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -717,13 +717,13 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
@@ -731,10 +731,10 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -742,13 +742,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{FDED576E-BB1A-4BAC-8E31-5A3EE1E571AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96E49CD0-0C79-4EB6-9226-47294B224AAE}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{FDED576E-BB1A-4BAC-8E31-5A3EE1E571AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01592995-D7E7-4D87-97CA-D93995631102}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
@@ -140,18 +140,9 @@
     <t>TBC depending on ONS recoding the qualification framework.</t>
   </si>
   <si>
-    <t>Apr 2022 - Mar 2023 (15/08/23)</t>
-  </si>
-  <si>
-    <t>Jul 2022 - Jun 2023 (17/10/23)</t>
-  </si>
-  <si>
     <t>Mar 2023 (27/09/23)</t>
   </si>
   <si>
-    <t>Mar 2024 (09/24)</t>
-  </si>
-  <si>
     <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/data-tables/permalink/f5995891-4e9a-439d-0d58-08dbd1400c33'&gt;National Pupil Database&lt;/a&gt;</t>
   </si>
   <si>
@@ -162,6 +153,15 @@
   </si>
   <si>
     <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/data-tables/permalink/b0424f32-b140-44a8-a039-08dbd1466a44'&gt;National Pupil Database&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Mar 2024 (Sep 24)</t>
+  </si>
+  <si>
+    <t>Oct 2022 - Sep 2023 (16/01/24)</t>
+  </si>
+  <si>
+    <t>Jul 2022 - Jun 2023 (24/10/23)</t>
   </si>
 </sst>
 </file>
@@ -548,7 +548,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -580,10 +580,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
@@ -594,10 +594,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -608,10 +608,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -664,10 +664,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -678,10 +678,10 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -703,13 +703,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -717,13 +717,13 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/ross_finnie_education_gov_uk/Documents/Documents/Git Projects/Local Skills Dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{FDED576E-BB1A-4BAC-8E31-5A3EE1E571AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01592995-D7E7-4D87-97CA-D93995631102}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{FDED576E-BB1A-4BAC-8E31-5A3EE1E571AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B39CDB1B-01E0-4631-A696-9AD82C342DA8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
+    <workbookView xWindow="33720" yWindow="2970" windowWidth="29040" windowHeight="15840" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,12 +83,6 @@
     <t>Enterprises by employment size band</t>
   </si>
   <si>
-    <t>Dec 2020 - Dec 2021 (17/11/22)</t>
-  </si>
-  <si>
-    <t>Dec 2021 - Dec 2022 (16/11/23)</t>
-  </si>
-  <si>
     <t>Job adverts by profession</t>
   </si>
   <si>
@@ -162,6 +156,12 @@
   </si>
   <si>
     <t>Jul 2022 - Jun 2023 (24/10/23)</t>
+  </si>
+  <si>
+    <t>Dec 2021 - Dec 2022 (22/11/23)</t>
+  </si>
+  <si>
+    <t>Dec 2022 - Dec 2023 (Nov 24)</t>
   </si>
 </sst>
 </file>
@@ -548,7 +548,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -574,30 +574,30 @@
     </row>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -608,24 +608,24 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -639,7 +639,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -650,10 +650,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -664,24 +664,24 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -692,49 +692,49 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -742,13 +742,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/ross_finnie_education_gov_uk/Documents/Documents/Git Projects/Local Skills Dashboard/Data/3-1_DataTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{FDED576E-BB1A-4BAC-8E31-5A3EE1E571AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B39CDB1B-01E0-4631-A696-9AD82C342DA8}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{FDED576E-BB1A-4BAC-8E31-5A3EE1E571AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61F2AD73-A99A-49F6-9E5B-B1CACE507CDF}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="2970" windowWidth="29040" windowHeight="15840" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>Data​</t>
   </si>
@@ -59,12 +59,6 @@
     <t>Further education and skills achievements by sector subject area</t>
   </si>
   <si>
-    <t>Aug 2021 – Jul 2022 (24/11/22)</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-tables/permalink/cae2bcbb-e385-4da7-8d7b-08dacbbccc68'&gt;Individualised Learner Record&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Employment by industry</t>
   </si>
   <si>
@@ -122,15 +116,9 @@
     <t>Enterprises by employment industry</t>
   </si>
   <si>
-    <t>Aug 2022 – Jul 2023 (Nov 23)</t>
-  </si>
-  <si>
     <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-catalogue/further-education-and-skills/2022-23'&gt;Individualised Learner Record&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Aug 2021 – Jul 2022 (31/03/23)</t>
-  </si>
-  <si>
     <t>TBC depending on ONS recoding the qualification framework.</t>
   </si>
   <si>
@@ -162,6 +150,15 @@
   </si>
   <si>
     <t>Dec 2022 - Dec 2023 (Nov 24)</t>
+  </si>
+  <si>
+    <t>Aug 2023 – Jul 2024 (Nov 24)</t>
+  </si>
+  <si>
+    <t>Aug 2022 – Jul 2023 (30/11/23)</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-tables/permalink/93f9aa79-9a67-48d5-e9e2-08dc0dc60f26'&gt;Individualised Learner Record&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -548,7 +545,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -574,58 +571,58 @@
     </row>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -633,108 +630,108 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -742,13 +739,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{FDED576E-BB1A-4BAC-8E31-5A3EE1E571AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61F2AD73-A99A-49F6-9E5B-B1CACE507CDF}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{FDED576E-BB1A-4BAC-8E31-5A3EE1E571AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{938A3197-9471-48BA-9E8A-0ECCFD6F002C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
@@ -143,9 +143,6 @@
     <t>Oct 2022 - Sep 2023 (16/01/24)</t>
   </si>
   <si>
-    <t>Jul 2022 - Jun 2023 (24/10/23)</t>
-  </si>
-  <si>
     <t>Dec 2021 - Dec 2022 (22/11/23)</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-tables/permalink/93f9aa79-9a67-48d5-e9e2-08dc0dc60f26'&gt;Individualised Learner Record&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Jan 2023 - Dec 2023 (16/04/24)</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -577,10 +577,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
@@ -591,10 +591,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -605,10 +605,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -619,10 +619,10 @@
         <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -630,13 +630,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -689,10 +689,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
         <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{FDED576E-BB1A-4BAC-8E31-5A3EE1E571AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{938A3197-9471-48BA-9E8A-0ECCFD6F002C}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{FDED576E-BB1A-4BAC-8E31-5A3EE1E571AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5CCD392-972B-4DD9-A9DF-0DFF6CCCBE72}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
@@ -77,9 +77,6 @@
     <t>Enterprises by employment size band</t>
   </si>
   <si>
-    <t>Job adverts by profession</t>
-  </si>
-  <si>
     <t>Jan 2021 - Dec 2021 (20/04/22)</t>
   </si>
   <si>
@@ -89,12 +86,6 @@
     <t>Key Stage 5 (KS5) destinations</t>
   </si>
   <si>
-    <t>Dec 2022 (13/02/23)</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.ons.gov.uk/employmentandlabourmarket/peopleinwork/employmentandemployeetypes/datasets/labourdemandvolumesbyprofessionandlocalauthorityukjanuary2017todecember2022'&gt;ONS Textkernel&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Skills Imperative 2035 employment projections by industry, sector, and qualification</t>
   </si>
   <si>
@@ -159,6 +150,15 @@
   </si>
   <si>
     <t>Jan 2023 - Dec 2023 (16/04/24)</t>
+  </si>
+  <si>
+    <t>Job adverts by occupation</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.ons.gov.uk/employmentandlabourmarket/peopleinwork/employmentandemployeetypes/datasets/labourdemandvolumesbystandardoccupationclassificationsoc2020uk'&gt;ONS Textkernel&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>May 2023 (15/03/24)</t>
   </si>
 </sst>
 </file>
@@ -246,9 +246,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -286,7 +286,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -392,7 +392,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -534,7 +534,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -545,7 +545,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -571,30 +571,30 @@
     </row>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -605,24 +605,24 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -630,13 +630,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -647,10 +647,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -661,24 +661,24 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -689,49 +689,49 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -739,13 +739,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/jane8_evans_education_gov_uk/Documents/Documents/Repos/lsip_dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{FDED576E-BB1A-4BAC-8E31-5A3EE1E571AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5CCD392-972B-4DD9-A9DF-0DFF6CCCBE72}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{FDED576E-BB1A-4BAC-8E31-5A3EE1E571AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E84A032E-62F9-406A-B13B-7C3F5415CD9E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,9 +131,6 @@
     <t>Mar 2024 (Sep 24)</t>
   </si>
   <si>
-    <t>Oct 2022 - Sep 2023 (16/01/24)</t>
-  </si>
-  <si>
     <t>Dec 2021 - Dec 2022 (22/11/23)</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>May 2023 (15/03/24)</t>
+  </si>
+  <si>
+    <t>Apr 2023 - Mar 2024 (18/07/24)</t>
   </si>
 </sst>
 </file>
@@ -243,6 +243,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -545,7 +549,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -577,10 +581,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
@@ -591,10 +595,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -605,10 +609,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -619,10 +623,10 @@
         <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -630,13 +634,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -689,10 +693,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
         <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -725,13 +729,13 @@
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/jane8_evans_education_gov_uk/Documents/Documents/Repos/lsip_dashboard/Data/3-1_DataTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{FDED576E-BB1A-4BAC-8E31-5A3EE1E571AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E84A032E-62F9-406A-B13B-7C3F5415CD9E}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{FDED576E-BB1A-4BAC-8E31-5A3EE1E571AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9A88C4E-81E0-4BC7-8FFA-2F40739CE296}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Data​</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Enterprises by employment size band</t>
   </si>
   <si>
-    <t>Jan 2021 - Dec 2021 (20/04/22)</t>
-  </si>
-  <si>
     <t>Key Stage 4 (KS4) destinations</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
   </si>
   <si>
     <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-catalogue/further-education-and-skills/2022-23'&gt;Individualised Learner Record&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>TBC depending on ONS recoding the qualification framework.</t>
   </si>
   <si>
     <t>Mar 2023 (27/09/23)</t>
@@ -243,10 +237,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -548,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6050695-7AD5-4EAF-ACCC-796FB129457A}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -575,30 +565,30 @@
     </row>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -609,24 +599,24 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -634,13 +624,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -651,10 +641,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -665,24 +655,24 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -693,49 +683,49 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -743,13 +733,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
         <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{FDED576E-BB1A-4BAC-8E31-5A3EE1E571AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9A88C4E-81E0-4BC7-8FFA-2F40739CE296}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{FDED576E-BB1A-4BAC-8E31-5A3EE1E571AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB3E9BD8-66B2-43C4-BC08-72456654E35E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t>To be announced</t>
   </si>
   <si>
-    <t>Further education and skills achievements by sector subject area</t>
-  </si>
-  <si>
     <t>Employment by industry</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>&lt;a href='https://www.gov.uk/government/publications/labour-market-and-skills-projections-2020-to-2035'&gt;Skills Imperative 2035&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Further education and skills achievements and participation by provision, level and age group</t>
-  </si>
-  <si>
     <t>Employment by occupation</t>
   </si>
   <si>
@@ -137,9 +131,6 @@
     <t>Aug 2022 – Jul 2023 (30/11/23)</t>
   </si>
   <si>
-    <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-tables/permalink/93f9aa79-9a67-48d5-e9e2-08dc0dc60f26'&gt;Individualised Learner Record&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Jan 2023 - Dec 2023 (16/04/24)</t>
   </si>
   <si>
@@ -153,6 +144,15 @@
   </si>
   <si>
     <t>Apr 2023 - Mar 2024 (18/07/24)</t>
+  </si>
+  <si>
+    <t>Further education and skills learner achievements and participation by age group</t>
+  </si>
+  <si>
+    <t>Further education and skills sim achievements by age, sector subject area and level</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://explore-education-statistics.service.gov.uk/find-statistics/further-education-and-skills'&gt;Individualised Learner Record&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -565,167 +565,167 @@
     </row>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -733,13 +733,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
         <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{FDED576E-BB1A-4BAC-8E31-5A3EE1E571AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB3E9BD8-66B2-43C4-BC08-72456654E35E}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{FDED576E-BB1A-4BAC-8E31-5A3EE1E571AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9A88C4E-81E0-4BC7-8FFA-2F40739CE296}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
@@ -56,6 +56,9 @@
     <t>To be announced</t>
   </si>
   <si>
+    <t>Further education and skills achievements by sector subject area</t>
+  </si>
+  <si>
     <t>Employment by industry</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
     <t>&lt;a href='https://www.gov.uk/government/publications/labour-market-and-skills-projections-2020-to-2035'&gt;Skills Imperative 2035&lt;/a&gt;</t>
   </si>
   <si>
+    <t>Further education and skills achievements and participation by provision, level and age group</t>
+  </si>
+  <si>
     <t>Employment by occupation</t>
   </si>
   <si>
@@ -131,6 +137,9 @@
     <t>Aug 2022 – Jul 2023 (30/11/23)</t>
   </si>
   <si>
+    <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-tables/permalink/93f9aa79-9a67-48d5-e9e2-08dc0dc60f26'&gt;Individualised Learner Record&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>Jan 2023 - Dec 2023 (16/04/24)</t>
   </si>
   <si>
@@ -144,15 +153,6 @@
   </si>
   <si>
     <t>Apr 2023 - Mar 2024 (18/07/24)</t>
-  </si>
-  <si>
-    <t>Further education and skills learner achievements and participation by age group</t>
-  </si>
-  <si>
-    <t>Further education and skills sim achievements by age, sector subject area and level</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://explore-education-statistics.service.gov.uk/find-statistics/further-education-and-skills'&gt;Individualised Learner Record&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -565,167 +565,167 @@
     </row>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -733,13 +733,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
         <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/jane8_evans_education_gov_uk/Documents/Documents/Repos/lsip_dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{FDED576E-BB1A-4BAC-8E31-5A3EE1E571AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9A88C4E-81E0-4BC7-8FFA-2F40739CE296}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{FDED576E-BB1A-4BAC-8E31-5A3EE1E571AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1C5AFD6-CD1C-40A0-A2D4-305D8761B91D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,10 +149,10 @@
     <t>&lt;a href='https://www.ons.gov.uk/employmentandlabourmarket/peopleinwork/employmentandemployeetypes/datasets/labourdemandvolumesbystandardoccupationclassificationsoc2020uk'&gt;ONS Textkernel&lt;/a&gt;</t>
   </si>
   <si>
-    <t>May 2023 (15/03/24)</t>
-  </si>
-  <si>
     <t>Apr 2023 - Mar 2024 (18/07/24)</t>
+  </si>
+  <si>
+    <t>Dec 2023 (24/06/24)</t>
   </si>
 </sst>
 </file>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6050695-7AD5-4EAF-ACCC-796FB129457A}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D7"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -574,7 +574,7 @@
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
@@ -588,7 +588,7 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -602,7 +602,7 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -644,7 +644,7 @@
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -725,7 +725,7 @@
         <v>36</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/jane8_evans_education_gov_uk/Documents/Documents/Repos/lsip_dashboard/Data/3-1_DataTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{FDED576E-BB1A-4BAC-8E31-5A3EE1E571AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1C5AFD6-CD1C-40A0-A2D4-305D8761B91D}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="114_{7DF4BC2A-E627-4690-BDAA-C427D3666987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E5C4D5F-C424-4349-A909-A87BD642E578}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>Data​</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>Dec 2023 (24/06/24)</t>
+  </si>
+  <si>
+    <t>Jul 2023 - Jun 2024 (15/10/24)</t>
+  </si>
+  <si>
+    <t>Jan 2024 - Dec 2024 (TBC)</t>
   </si>
 </sst>
 </file>
@@ -539,7 +545,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -571,10 +577,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
@@ -585,10 +591,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -599,10 +605,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -644,7 +650,7 @@
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="114_{7DF4BC2A-E627-4690-BDAA-C427D3666987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E5C4D5F-C424-4349-A909-A87BD642E578}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="114_{7DF4BC2A-E627-4690-BDAA-C427D3666987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61964A8F-679C-4994-A743-161B6951DEA2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
@@ -86,9 +86,6 @@
     <t>Skills Imperative 2035 employment projections by industry, sector, and qualification</t>
   </si>
   <si>
-    <t>2035 (16/03/23)</t>
-  </si>
-  <si>
     <t>&lt;a href='https://www.gov.uk/government/publications/labour-market-and-skills-projections-2020-to-2035'&gt;Skills Imperative 2035&lt;/a&gt;</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>Jan 2024 - Dec 2024 (TBC)</t>
+  </si>
+  <si>
+    <t>2035 (02/08/24)</t>
   </si>
 </sst>
 </file>
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6050695-7AD5-4EAF-ACCC-796FB129457A}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -571,30 +571,30 @@
     </row>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -605,24 +605,24 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -630,13 +630,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -647,10 +647,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -661,24 +661,24 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -689,10 +689,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
         <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -714,24 +714,24 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
       <c r="C13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -742,10 +742,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="114_{7DF4BC2A-E627-4690-BDAA-C427D3666987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61964A8F-679C-4994-A743-161B6951DEA2}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="114_{7DF4BC2A-E627-4690-BDAA-C427D3666987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{108F1FDD-21D5-4026-A47E-15C780369770}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
@@ -158,7 +158,7 @@
     <t>Jan 2024 - Dec 2024 (TBC)</t>
   </si>
   <si>
-    <t>2035 (02/08/24)</t>
+    <t>2035 (05/08/24)</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjames2\OneDrive - Department for Education\Documents\RProjects\lsip_dashboard\Data\3-1_DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="114_{7DF4BC2A-E627-4690-BDAA-C427D3666987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{108F1FDD-21D5-4026-A47E-15C780369770}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
@@ -146,9 +146,6 @@
     <t>&lt;a href='https://www.ons.gov.uk/employmentandlabourmarket/peopleinwork/employmentandemployeetypes/datasets/labourdemandvolumesbystandardoccupationclassificationsoc2020uk'&gt;ONS Textkernel&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Apr 2023 - Mar 2024 (18/07/24)</t>
-  </si>
-  <si>
     <t>Dec 2023 (24/06/24)</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>2035 (05/08/24)</t>
+  </si>
+  <si>
+    <t>Oct 2023 - Sep 2024 (14/01/25)</t>
   </si>
 </sst>
 </file>
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6050695-7AD5-4EAF-ACCC-796FB129457A}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -577,10 +577,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
@@ -591,10 +591,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -605,10 +605,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -650,7 +650,7 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -731,7 +731,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -745,7 +745,7 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjames2\OneDrive - Department for Education\Documents\RProjects\lsip_dashboard\Data\3-1_DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5044B29-5E9B-4AD2-A1C6-319412B93F54}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
@@ -104,9 +104,6 @@
     <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-catalogue/further-education-and-skills/2022-23'&gt;Individualised Learner Record&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Mar 2023 (27/09/23)</t>
-  </si>
-  <si>
     <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/data-tables/permalink/f5995891-4e9a-439d-0d58-08dbd1400c33'&gt;National Pupil Database&lt;/a&gt;</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/data-tables/permalink/b0424f32-b140-44a8-a039-08dbd1466a44'&gt;National Pupil Database&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Mar 2024 (Sep 24)</t>
-  </si>
-  <si>
     <t>Dec 2021 - Dec 2022 (22/11/23)</t>
   </si>
   <si>
@@ -159,6 +153,12 @@
   </si>
   <si>
     <t>Oct 2023 - Sep 2024 (14/01/25)</t>
+  </si>
+  <si>
+    <t>Mar 2024 (17/10/24)</t>
+  </si>
+  <si>
+    <t>Mar 2025 (30/12/25)</t>
   </si>
 </sst>
 </file>
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6050695-7AD5-4EAF-ACCC-796FB129457A}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -577,10 +577,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
@@ -591,10 +591,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -605,10 +605,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -619,10 +619,10 @@
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -630,13 +630,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -647,10 +647,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -661,10 +661,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -675,10 +675,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -689,10 +689,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -714,24 +714,24 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -745,7 +745,7 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjames2\OneDrive - Department for Education\Documents\RProjects\lsip_dashboard\Data\3-1_DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C365DDDE-12B1-4BED-8764-2F0CB143DF24}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
@@ -107,18 +107,6 @@
     <t>Mar 2023 (27/09/23)</t>
   </si>
   <si>
-    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/data-tables/permalink/f5995891-4e9a-439d-0d58-08dbd1400c33'&gt;National Pupil Database&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Aug 2021 -  Jul 2022 (20/21 learners) (19/10/23)</t>
-  </si>
-  <si>
-    <t>Aug 2022 -  Jul 2023 (21/22 learners) (Oct 24)</t>
-  </si>
-  <si>
-    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/data-tables/permalink/b0424f32-b140-44a8-a039-08dbd1466a44'&gt;National Pupil Database&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Mar 2024 (Sep 24)</t>
   </si>
   <si>
@@ -159,6 +147,18 @@
   </si>
   <si>
     <t>Oct 2023 - Sep 2024 (14/01/25)</t>
+  </si>
+  <si>
+    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/data-tables/permalink/86d98c08-f1f2-469f-5a0f-08dcf4c92e7d'&gt;National Pupil Database&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Aug 2022 -  Jul 2023 (21/22 learners) (24/10/24)</t>
+  </si>
+  <si>
+    <t>Aug 2023 -  Jul 2024 (22/23 learners) (Oct 25)</t>
+  </si>
+  <si>
+    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/data-tables/permalink/3c47beb5-97bc-4cb2-5a12-08dcf4c92e7d'&gt;National Pupil Database&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -577,10 +577,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
@@ -591,10 +591,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -605,10 +605,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -619,10 +619,10 @@
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -630,13 +630,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -647,10 +647,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -664,7 +664,7 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -678,7 +678,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -689,10 +689,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -714,24 +714,24 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -745,7 +745,7 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5044B29-5E9B-4AD2-A1C6-319412B93F54}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E11A2F6A-D266-4C8C-925B-F39B370C4123}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
@@ -104,18 +104,6 @@
     <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-catalogue/further-education-and-skills/2022-23'&gt;Individualised Learner Record&lt;/a&gt;</t>
   </si>
   <si>
-    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/data-tables/permalink/f5995891-4e9a-439d-0d58-08dbd1400c33'&gt;National Pupil Database&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Aug 2021 -  Jul 2022 (20/21 learners) (19/10/23)</t>
-  </si>
-  <si>
-    <t>Aug 2022 -  Jul 2023 (21/22 learners) (Oct 24)</t>
-  </si>
-  <si>
-    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/data-tables/permalink/b0424f32-b140-44a8-a039-08dbd1466a44'&gt;National Pupil Database&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Dec 2021 - Dec 2022 (22/11/23)</t>
   </si>
   <si>
@@ -159,6 +147,18 @@
   </si>
   <si>
     <t>Mar 2025 (30/12/25)</t>
+  </si>
+  <si>
+    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/data-tables/permalink/86d98c08-f1f2-469f-5a0f-08dcf4c92e7d'&gt;National Pupil Database&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Aug 2022 -  Jul 2023 (21/22 learners) (24/10/24)</t>
+  </si>
+  <si>
+    <t>Aug 2023 -  Jul 2024 (22/23 learners) (Oct 25)</t>
+  </si>
+  <si>
+    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/data-tables/permalink/3c47beb5-97bc-4cb2-5a12-08dcf4c92e7d'&gt;National Pupil Database&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -577,10 +577,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
@@ -591,10 +591,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -605,10 +605,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -619,10 +619,10 @@
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -630,13 +630,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -647,10 +647,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -661,10 +661,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -675,10 +675,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -689,10 +689,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -714,24 +714,24 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -745,7 +745,7 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/rory_burke_education_gov_uk/Documents/GiT Projects/Local Skills Dashboard/Local skills dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E11A2F6A-D266-4C8C-925B-F39B370C4123}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B755C77-28C6-4D4A-BF5B-D2BD455A4847}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
+    <workbookView xWindow="-15230" yWindow="10690" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,9 +128,6 @@
     <t>&lt;a href='https://www.ons.gov.uk/employmentandlabourmarket/peopleinwork/employmentandemployeetypes/datasets/labourdemandvolumesbystandardoccupationclassificationsoc2020uk'&gt;ONS Textkernel&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Dec 2023 (24/06/24)</t>
-  </si>
-  <si>
     <t>Jul 2023 - Jun 2024 (15/10/24)</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/data-tables/permalink/3c47beb5-97bc-4cb2-5a12-08dcf4c92e7d'&gt;National Pupil Database&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Nov 2024 (05/11/24)</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -577,10 +577,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
@@ -591,10 +591,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -605,10 +605,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -650,7 +650,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -661,10 +661,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
         <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -675,10 +675,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
         <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
@@ -731,7 +731,7 @@
         <v>29</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -745,7 +745,7 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/rory_burke_education_gov_uk/Documents/GiT Projects/Local Skills Dashboard/Local skills dashboard/Data/3-1_DataTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B755C77-28C6-4D4A-BF5B-D2BD455A4847}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D19286B5-3F4B-4288-B2DA-7E02A171184C}"/>
   <bookViews>
-    <workbookView xWindow="-15230" yWindow="10690" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,12 +104,6 @@
     <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-catalogue/further-education-and-skills/2022-23'&gt;Individualised Learner Record&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Dec 2021 - Dec 2022 (22/11/23)</t>
-  </si>
-  <si>
-    <t>Dec 2022 - Dec 2023 (Nov 24)</t>
-  </si>
-  <si>
     <t>Aug 2023 – Jul 2024 (Nov 24)</t>
   </si>
   <si>
@@ -159,6 +153,12 @@
   </si>
   <si>
     <t>Nov 2024 (05/11/24)</t>
+  </si>
+  <si>
+    <t>Dec 2022 - Dec 2023 (18/11/24)</t>
+  </si>
+  <si>
+    <t>Dec 2023 - Dec 2024 (Nov 25)</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -577,10 +577,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
@@ -591,10 +591,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -605,10 +605,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -619,10 +619,10 @@
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -630,13 +630,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -647,10 +647,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -661,10 +661,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -675,10 +675,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -689,10 +689,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -714,24 +714,24 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -745,7 +745,7 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D19286B5-3F4B-4288-B2DA-7E02A171184C}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0AC7B4C-ED78-4CD0-B0BA-01BD6ECFFC90}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
@@ -122,18 +122,12 @@
     <t>&lt;a href='https://www.ons.gov.uk/employmentandlabourmarket/peopleinwork/employmentandemployeetypes/datasets/labourdemandvolumesbystandardoccupationclassificationsoc2020uk'&gt;ONS Textkernel&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Jul 2023 - Jun 2024 (15/10/24)</t>
-  </si>
-  <si>
     <t>Jan 2024 - Dec 2024 (TBC)</t>
   </si>
   <si>
     <t>2035 (05/08/24)</t>
   </si>
   <si>
-    <t>Oct 2023 - Sep 2024 (14/01/25)</t>
-  </si>
-  <si>
     <t>Mar 2024 (17/10/24)</t>
   </si>
   <si>
@@ -159,6 +153,12 @@
   </si>
   <si>
     <t>Dec 2023 - Dec 2024 (Nov 25)</t>
+  </si>
+  <si>
+    <t>Oct 2023 - Sep 2024 (21/01/25)</t>
+  </si>
+  <si>
+    <t>Jan 2024 - Dec 2024 (15/04/25)</t>
   </si>
 </sst>
 </file>
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6050695-7AD5-4EAF-ACCC-796FB129457A}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -577,10 +577,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
@@ -591,10 +591,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -605,10 +605,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -650,7 +650,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -661,10 +661,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -675,10 +675,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -689,10 +689,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
@@ -731,7 +731,7 @@
         <v>27</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -745,7 +745,7 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0AC7B4C-ED78-4CD0-B0BA-01BD6ECFFC90}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2485617A-F658-4672-BC9D-48B8C728E7FB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
@@ -101,18 +101,6 @@
     <t>Enterprises by employment industry</t>
   </si>
   <si>
-    <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-catalogue/further-education-and-skills/2022-23'&gt;Individualised Learner Record&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Aug 2023 – Jul 2024 (Nov 24)</t>
-  </si>
-  <si>
-    <t>Aug 2022 – Jul 2023 (30/11/23)</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-tables/permalink/93f9aa79-9a67-48d5-e9e2-08dc0dc60f26'&gt;Individualised Learner Record&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Jan 2023 - Dec 2023 (16/04/24)</t>
   </si>
   <si>
@@ -159,6 +147,18 @@
   </si>
   <si>
     <t>Jan 2024 - Dec 2024 (15/04/25)</t>
+  </si>
+  <si>
+    <t>Aug 2024 – Jul 2025 (Nov 25)</t>
+  </si>
+  <si>
+    <t>Aug 2023 – Jul 2024 (28/11/24)</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-catalogue/data-set/b930498d-b4f0-416d-a086-7acee1be8179'&gt;Individualised Learner Record&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-tables/permalink/47e8710e-ccb7-401c-ab25-08dd34489990'&gt;Individualised Learner Record&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -577,10 +577,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
@@ -591,10 +591,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -605,10 +605,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -616,13 +616,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -630,13 +630,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -647,10 +647,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -661,10 +661,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -675,10 +675,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -689,10 +689,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -714,24 +714,24 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -745,7 +745,7 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2485617A-F658-4672-BC9D-48B8C728E7FB}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5322E67F-83B8-4BD1-B369-5CA00694E2D7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
@@ -134,9 +134,6 @@
     <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/data-tables/permalink/3c47beb5-97bc-4cb2-5a12-08dcf4c92e7d'&gt;National Pupil Database&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Nov 2024 (05/11/24)</t>
-  </si>
-  <si>
     <t>Dec 2022 - Dec 2023 (18/11/24)</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-tables/permalink/47e8710e-ccb7-401c-ab25-08dd34489990'&gt;Individualised Learner Record&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Nov 2024 (07/02/25)</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -577,10 +577,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
         <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
@@ -591,10 +591,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
         <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -605,10 +605,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
         <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -616,13 +616,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -630,13 +630,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -689,10 +689,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
         <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -731,7 +731,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5322E67F-83B8-4BD1-B369-5CA00694E2D7}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7FABC4D-C875-4D5D-B00A-A354742858E2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
@@ -122,18 +122,9 @@
     <t>Mar 2025 (30/12/25)</t>
   </si>
   <si>
-    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/data-tables/permalink/86d98c08-f1f2-469f-5a0f-08dcf4c92e7d'&gt;National Pupil Database&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Aug 2022 -  Jul 2023 (21/22 learners) (24/10/24)</t>
-  </si>
-  <si>
     <t>Aug 2023 -  Jul 2024 (22/23 learners) (Oct 25)</t>
   </si>
   <si>
-    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/data-tables/permalink/3c47beb5-97bc-4cb2-5a12-08dcf4c92e7d'&gt;National Pupil Database&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Dec 2022 - Dec 2023 (18/11/24)</t>
   </si>
   <si>
@@ -159,6 +150,15 @@
   </si>
   <si>
     <t>Nov 2024 (07/02/25)</t>
+  </si>
+  <si>
+    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/find-statistics/16-18-destination-measures'&gt;16-18 destination measures&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/find-statistics/key-stage-4-destination-measures/2022-23'&gt;Key stage 4 destination measures&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Aug 2022 -  Jul 2023 (21/22 learners) (27/02/25)</t>
   </si>
 </sst>
 </file>
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6050695-7AD5-4EAF-ACCC-796FB129457A}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -577,10 +577,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
@@ -591,10 +591,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -605,10 +605,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -616,13 +616,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -630,13 +630,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -689,10 +689,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
@@ -731,7 +731,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7FABC4D-C875-4D5D-B00A-A354742858E2}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B95A015-F28A-46C8-93B5-EF060914017A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
@@ -149,9 +149,6 @@
     <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-tables/permalink/47e8710e-ccb7-401c-ab25-08dd34489990'&gt;Individualised Learner Record&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Nov 2024 (07/02/25)</t>
-  </si>
-  <si>
     <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/find-statistics/16-18-destination-measures'&gt;16-18 destination measures&lt;/a&gt;</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>Aug 2022 -  Jul 2023 (21/22 learners) (27/02/25)</t>
+  </si>
+  <si>
+    <t>Jan 2025 (12/03/25)</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -700,10 +700,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>28</v>
@@ -714,10 +714,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>28</v>
@@ -731,7 +731,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5322E67F-83B8-4BD1-B369-5CA00694E2D7}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BA8C8BA-360C-405D-8F2B-F1CD783CB102}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
@@ -140,9 +140,6 @@
     <t>Dec 2023 - Dec 2024 (Nov 25)</t>
   </si>
   <si>
-    <t>Oct 2023 - Sep 2024 (21/01/25)</t>
-  </si>
-  <si>
     <t>Jan 2024 - Dec 2024 (15/04/25)</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>Nov 2024 (07/02/25)</t>
+  </si>
+  <si>
+    <t>Apr 2024 - Mar 2025 (17/07/25)</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -580,7 +580,7 @@
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
@@ -594,7 +594,7 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -608,7 +608,7 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -616,13 +616,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -630,13 +630,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -731,7 +731,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BA8C8BA-360C-405D-8F2B-F1CD783CB102}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBCCC860-7376-473F-AD63-4E18BE6783BD}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
+    <workbookView xWindow="4360" yWindow="20" windowWidth="15310" windowHeight="14300" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -155,10 +155,10 @@
     <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-tables/permalink/47e8710e-ccb7-401c-ab25-08dd34489990'&gt;Individualised Learner Record&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Nov 2024 (07/02/25)</t>
-  </si>
-  <si>
     <t>Apr 2024 - Mar 2025 (17/07/25)</t>
+  </si>
+  <si>
+    <t>Feb 2025 (01/04/25)</t>
   </si>
 </sst>
 </file>
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6050695-7AD5-4EAF-ACCC-796FB129457A}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -580,7 +580,7 @@
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
@@ -594,7 +594,7 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -608,7 +608,7 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -731,7 +731,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBCCC860-7376-473F-AD63-4E18BE6783BD}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29E94ECA-B4B2-4CBD-9CE1-5CDD3C5D3107}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="20" windowWidth="15310" windowHeight="14300" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,9 +125,6 @@
     <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/data-tables/permalink/86d98c08-f1f2-469f-5a0f-08dcf4c92e7d'&gt;National Pupil Database&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Aug 2022 -  Jul 2023 (21/22 learners) (24/10/24)</t>
-  </si>
-  <si>
     <t>Aug 2023 -  Jul 2024 (22/23 learners) (Oct 25)</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>Feb 2025 (01/04/25)</t>
+  </si>
+  <si>
+    <t>Aug 2022 -  Jul 2023 (21/22 learners) (27/02/25)</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -577,10 +577,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
@@ -591,10 +591,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -605,10 +605,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -616,13 +616,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -630,13 +630,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -689,10 +689,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
         <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -703,10 +703,10 @@
         <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
@@ -731,7 +731,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29E94ECA-B4B2-4CBD-9CE1-5CDD3C5D3107}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7347B5D-8E7A-4617-A10E-CE3C30D2684D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
@@ -122,15 +122,9 @@
     <t>Mar 2025 (30/12/25)</t>
   </si>
   <si>
-    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/data-tables/permalink/86d98c08-f1f2-469f-5a0f-08dcf4c92e7d'&gt;National Pupil Database&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Aug 2023 -  Jul 2024 (22/23 learners) (Oct 25)</t>
   </si>
   <si>
-    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/data-tables/permalink/3c47beb5-97bc-4cb2-5a12-08dcf4c92e7d'&gt;National Pupil Database&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Dec 2022 - Dec 2023 (18/11/24)</t>
   </si>
   <si>
@@ -159,6 +153,12 @@
   </si>
   <si>
     <t>Aug 2022 -  Jul 2023 (21/22 learners) (27/02/25)</t>
+  </si>
+  <si>
+    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/find-statistics/key-stage-4-destination-measures/2022-23'&gt;Key stage 4 destination measures&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/find-statistics/16-18-destination-measures/2022-23'&gt;16-18 destination measures&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -577,10 +577,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
@@ -591,10 +591,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -605,10 +605,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -616,13 +616,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -630,13 +630,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -689,10 +689,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
@@ -731,7 +731,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7347B5D-8E7A-4617-A10E-CE3C30D2684D}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4994510D-CABC-4A91-9F4C-E12CD12C6015}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="15310" windowHeight="14300" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>Data​</t>
   </si>
@@ -149,9 +149,6 @@
     <t>Apr 2024 - Mar 2025 (17/07/25)</t>
   </si>
   <si>
-    <t>Feb 2025 (01/04/25)</t>
-  </si>
-  <si>
     <t>Aug 2022 -  Jul 2023 (21/22 learners) (27/02/25)</t>
   </si>
   <si>
@@ -159,6 +156,12 @@
   </si>
   <si>
     <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/find-statistics/16-18-destination-measures/2022-23'&gt;16-18 destination measures&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Mar 2025 (25/04/25)</t>
+  </si>
+  <si>
+    <t>Apr 2025 (May 2025)</t>
   </si>
 </sst>
 </file>
@@ -544,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6050695-7AD5-4EAF-ACCC-796FB129457A}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -700,10 +703,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>28</v>
@@ -714,10 +717,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>28</v>
@@ -731,10 +734,10 @@
         <v>23</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4994510D-CABC-4A91-9F4C-E12CD12C6015}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B115D165-CF51-4A2C-8964-8F5DC519E60F}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="15310" windowHeight="14300" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>Data​</t>
   </si>
@@ -101,18 +101,12 @@
     <t>Enterprises by employment industry</t>
   </si>
   <si>
-    <t>Jan 2023 - Dec 2023 (16/04/24)</t>
-  </si>
-  <si>
     <t>Job adverts by occupation</t>
   </si>
   <si>
     <t>&lt;a href='https://www.ons.gov.uk/employmentandlabourmarket/peopleinwork/employmentandemployeetypes/datasets/labourdemandvolumesbystandardoccupationclassificationsoc2020uk'&gt;ONS Textkernel&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Jan 2024 - Dec 2024 (TBC)</t>
-  </si>
-  <si>
     <t>2035 (05/08/24)</t>
   </si>
   <si>
@@ -162,6 +156,9 @@
   </si>
   <si>
     <t>Apr 2025 (May 2025)</t>
+  </si>
+  <si>
+    <t>Jan 2025 - Dec 2025 (Apr 26)</t>
   </si>
 </sst>
 </file>
@@ -547,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6050695-7AD5-4EAF-ACCC-796FB129457A}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -580,10 +577,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
@@ -594,10 +591,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -608,10 +605,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -619,13 +616,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -633,13 +630,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -650,10 +647,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -664,10 +661,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -678,10 +675,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -692,10 +689,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -703,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -717,27 +714,27 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -748,7 +745,7 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B115D165-CF51-4A2C-8964-8F5DC519E60F}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4509007-0730-4BF6-B8FD-E851F09F0168}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
@@ -152,13 +152,13 @@
     <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/find-statistics/16-18-destination-measures/2022-23'&gt;16-18 destination measures&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Mar 2025 (25/04/25)</t>
-  </si>
-  <si>
-    <t>Apr 2025 (May 2025)</t>
-  </si>
-  <si>
     <t>Jan 2025 - Dec 2025 (Apr 26)</t>
+  </si>
+  <si>
+    <t>May 2025 (26/06/25)</t>
+  </si>
+  <si>
+    <t>Jun 2025 (Jul 2025)</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -650,7 +650,7 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -731,10 +731,10 @@
         <v>22</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4509007-0730-4BF6-B8FD-E851F09F0168}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F3D9AD3-255B-4F1D-878E-44FCBABAACD7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>Data​</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>Jun 2025 (Jul 2025)</t>
+  </si>
+  <si>
+    <t>Jul 2024 - Jun 2025 (14/10/25)</t>
   </si>
 </sst>
 </file>
@@ -544,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6050695-7AD5-4EAF-ACCC-796FB129457A}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -577,10 +580,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
@@ -591,10 +594,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -605,10 +608,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F3D9AD3-255B-4F1D-878E-44FCBABAACD7}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCDB3196-C2D7-4356-A302-442DB89EFE01}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
@@ -155,13 +155,13 @@
     <t>Jan 2025 - Dec 2025 (Apr 26)</t>
   </si>
   <si>
-    <t>May 2025 (26/06/25)</t>
-  </si>
-  <si>
-    <t>Jun 2025 (Jul 2025)</t>
-  </si>
-  <si>
     <t>Jul 2024 - Jun 2025 (14/10/25)</t>
+  </si>
+  <si>
+    <t>Jul 2025 (29/08/25)</t>
+  </si>
+  <si>
+    <t>Jun 2025 (01/08/25)</t>
   </si>
 </sst>
 </file>
@@ -548,7 +548,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -583,7 +583,7 @@
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
@@ -597,7 +597,7 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -611,7 +611,7 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -734,7 +734,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
         <v>40</v>

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmt1pr-dhfs01\Personal\MMEHTA4\Repos\lsip_dashboard\Data\3-1_DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{B1C53E57-9A20-4D3A-B86C-D2FC386A6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCDB3196-C2D7-4356-A302-442DB89EFE01}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E491BE-4718-4455-9A42-DB20A1EB32F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
@@ -161,14 +161,14 @@
     <t>Jul 2025 (29/08/25)</t>
   </si>
   <si>
-    <t>Jun 2025 (01/08/25)</t>
+    <t>Aug 2025 (September (TBC))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,12 +196,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF323132"/>
-      <name val="Open Sans"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -223,14 +217,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,9 +540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6050695-7AD5-4EAF-ACCC-796FB129457A}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -733,11 +724,11 @@
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
         <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmt1pr-dhfs01\Personal\MMEHTA4\Repos\lsip_dashboard\Data\3-1_DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E491BE-4718-4455-9A42-DB20A1EB32F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{49E491BE-4718-4455-9A42-DB20A1EB32F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C781C487-00E3-4793-BEA9-5992C48305CE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
+    <workbookView xWindow="6740" yWindow="20" windowWidth="15310" windowHeight="14300" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
     <t>Jul 2025 (29/08/25)</t>
   </si>
   <si>
-    <t>Aug 2025 (September (TBC))</t>
+    <t>Aug 2025 (Sep 25)</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6050695-7AD5-4EAF-ACCC-796FB129457A}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjames2\OneDrive - Department for Education\Documents\RProjects\lsip_dashboard\Data\3-1_DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{49E491BE-4718-4455-9A42-DB20A1EB32F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C781C487-00E3-4793-BEA9-5992C48305CE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01EFA5B-317B-479C-99B8-943AF476D39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6740" yWindow="20" windowWidth="15310" windowHeight="14300" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
     <t>Jul 2025 (29/08/25)</t>
   </si>
   <si>
-    <t>Aug 2025 (Sep 25)</t>
+    <t>Sep 2025 (Oct 25)*</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6050695-7AD5-4EAF-ACCC-796FB129457A}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjames2\OneDrive - Department for Education\Documents\RProjects\lsip_dashboard\Data\3-1_DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01EFA5B-317B-479C-99B8-943AF476D39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{E01EFA5B-317B-479C-99B8-943AF476D39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FE3080C-3449-4CBC-85EB-7F4DACBE8252}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
@@ -110,12 +110,6 @@
     <t>2035 (05/08/24)</t>
   </si>
   <si>
-    <t>Mar 2024 (17/10/24)</t>
-  </si>
-  <si>
-    <t>Mar 2025 (30/12/25)</t>
-  </si>
-  <si>
     <t>Aug 2023 -  Jul 2024 (22/23 learners) (Oct 25)</t>
   </si>
   <si>
@@ -162,6 +156,12 @@
   </si>
   <si>
     <t>Sep 2025 (Oct 25)*</t>
+  </si>
+  <si>
+    <t>Mar 2025 (14/10/24)</t>
+  </si>
+  <si>
+    <t>Mar 2026 (Autumn 26)</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -573,10 +573,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
@@ -587,10 +587,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -601,10 +601,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -612,13 +612,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -626,13 +626,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -643,10 +643,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -657,10 +657,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -671,10 +671,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -685,10 +685,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -696,13 +696,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -710,13 +710,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
@@ -727,10 +727,10 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{E01EFA5B-317B-479C-99B8-943AF476D39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FE3080C-3449-4CBC-85EB-7F4DACBE8252}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{E01EFA5B-317B-479C-99B8-943AF476D39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57F6C660-192F-4299-A730-A6C03556DD6D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
@@ -110,9 +110,6 @@
     <t>2035 (05/08/24)</t>
   </si>
   <si>
-    <t>Aug 2023 -  Jul 2024 (22/23 learners) (Oct 25)</t>
-  </si>
-  <si>
     <t>Dec 2022 - Dec 2023 (18/11/24)</t>
   </si>
   <si>
@@ -137,15 +134,6 @@
     <t>Apr 2024 - Mar 2025 (17/07/25)</t>
   </si>
   <si>
-    <t>Aug 2022 -  Jul 2023 (21/22 learners) (27/02/25)</t>
-  </si>
-  <si>
-    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/find-statistics/key-stage-4-destination-measures/2022-23'&gt;Key stage 4 destination measures&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/find-statistics/16-18-destination-measures/2022-23'&gt;16-18 destination measures&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Jan 2025 - Dec 2025 (Apr 26)</t>
   </si>
   <si>
@@ -162,6 +150,18 @@
   </si>
   <si>
     <t>Mar 2026 (Autumn 26)</t>
+  </si>
+  <si>
+    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/find-statistics/16-18-destination-measures'&gt;16-18 destination measures&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = 'https://explore-education-statistics.service.gov.uk/find-statistics/key-stage-4-destination-measures/'&gt;Key stage 4 destination measures&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Aug 2023 -  Jul 2024 (22/23 learners) (16/10/25)</t>
+  </si>
+  <si>
+    <t>Aug 2023 -  Jul 2024 (22/23 learners) (Feb 26)</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -573,10 +573,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
@@ -587,10 +587,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -601,10 +601,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -612,13 +612,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -626,13 +626,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -643,10 +643,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -657,10 +657,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -671,10 +671,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -685,10 +685,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -696,13 +696,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -710,13 +710,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
@@ -727,10 +727,10 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/paul_james_education_gov_uk/Documents/Documents/RProjects/lsip_dashboard/Data/3-1_DataTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjames2\OneDrive - Department for Education\Documents\RProjects\lsip_dashboard\Data\3-1_DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{E01EFA5B-317B-479C-99B8-943AF476D39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57F6C660-192F-4299-A730-A6C03556DD6D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3528C90A-B688-47B8-A04C-1AE289EAAB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
@@ -131,9 +131,6 @@
     <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-tables/permalink/47e8710e-ccb7-401c-ab25-08dd34489990'&gt;Individualised Learner Record&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Apr 2024 - Mar 2025 (17/07/25)</t>
-  </si>
-  <si>
     <t>Jan 2025 - Dec 2025 (Apr 26)</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>Aug 2023 -  Jul 2024 (22/23 learners) (Feb 26)</t>
+  </si>
+  <si>
+    <t>Oct 2024 - Sep 2025 (20/01/26)</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -573,10 +573,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
@@ -587,10 +587,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -601,10 +601,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -646,7 +646,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -657,10 +657,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
         <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -671,10 +671,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
         <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -696,13 +696,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -710,13 +710,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
@@ -727,10 +727,10 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
         <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjames2\OneDrive - Department for Education\Documents\RProjects\lsip_dashboard\Data\3-1_DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3528C90A-B688-47B8-A04C-1AE289EAAB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C1AC85-9D6F-4240-8084-FEF026870769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
@@ -140,9 +140,6 @@
     <t>Jul 2025 (29/08/25)</t>
   </si>
   <si>
-    <t>Sep 2025 (Oct 25)*</t>
-  </si>
-  <si>
     <t>Mar 2025 (14/10/24)</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>Oct 2024 - Sep 2025 (20/01/26)</t>
+  </si>
+  <si>
+    <t>TBC*</t>
   </si>
 </sst>
 </file>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6050695-7AD5-4EAF-ACCC-796FB129457A}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -576,7 +576,7 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
@@ -590,7 +590,7 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -604,7 +604,7 @@
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -657,10 +657,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
         <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -671,10 +671,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
         <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -696,13 +696,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -710,13 +710,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
@@ -730,7 +730,7 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjames2\OneDrive - Department for Education\Documents\RProjects\lsip_dashboard\Data\3-1_DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jevans8\Repos\lsip_dashboard\Data\3-1_DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C1AC85-9D6F-4240-8084-FEF026870769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75EA214-51D1-46BB-A7DD-7736441E53E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
@@ -110,12 +110,6 @@
     <t>2035 (05/08/24)</t>
   </si>
   <si>
-    <t>Dec 2022 - Dec 2023 (18/11/24)</t>
-  </si>
-  <si>
-    <t>Dec 2023 - Dec 2024 (Nov 25)</t>
-  </si>
-  <si>
     <t>Jan 2024 - Dec 2024 (15/04/25)</t>
   </si>
   <si>
@@ -162,6 +156,12 @@
   </si>
   <si>
     <t>TBC*</t>
+  </si>
+  <si>
+    <t>Dec 2023 - Dec 2024 (20/11/25)</t>
+  </si>
+  <si>
+    <t>Dec 2024 - Dec 2025 (Nov 26)</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -573,10 +573,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
@@ -587,10 +587,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -601,10 +601,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -612,13 +612,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -626,13 +626,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -643,10 +643,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -657,10 +657,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -671,10 +671,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -685,10 +685,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -696,13 +696,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -710,13 +710,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
@@ -727,10 +727,10 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">

--- a/Data/3-1_DataTable/DataTable.xlsx
+++ b/Data/3-1_DataTable/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jevans8\Repos\lsip_dashboard\Data\3-1_DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75EA214-51D1-46BB-A7DD-7736441E53E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CA5E8E-A54C-4860-B017-C7DC9575D383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{677CE7B9-0003-4845-87B7-4FABD7ACD82F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,18 +113,6 @@
     <t>Jan 2024 - Dec 2024 (15/04/25)</t>
   </si>
   <si>
-    <t>Aug 2024 – Jul 2025 (Nov 25)</t>
-  </si>
-  <si>
-    <t>Aug 2023 – Jul 2024 (28/11/24)</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-catalogue/data-set/b930498d-b4f0-416d-a086-7acee1be8179'&gt;Individualised Learner Record&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-tables/permalink/47e8710e-ccb7-401c-ab25-08dd34489990'&gt;Individualised Learner Record&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Jan 2025 - Dec 2025 (Apr 26)</t>
   </si>
   <si>
@@ -162,6 +150,18 @@
   </si>
   <si>
     <t>Dec 2024 - Dec 2025 (Nov 26)</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-catalogue/data-set/1977cdbc-7eae-4257-a8c9-3281bb2dbfa9'&gt;Individualised Learner Record&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://explore-education-statistics.service.gov.uk/data-tables/permalink/529ad7b1-7a0f-419c-eb81-08de29d3af56'&gt;Individualised Learner Record&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Aug 2024 – Jul 2025 (27/11/25)</t>
+  </si>
+  <si>
+    <t>Aug 2025 – Jul 2026 (Nov 26)</t>
   </si>
 </sst>
 </file>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6050695-7AD5-4EAF-ACCC-796FB129457A}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -573,10 +573,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="125" customHeight="1" x14ac:dyDescent="0.35">
@@ -587,10 +587,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -601,10 +601,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -612,13 +612,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -626,13 +626,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -646,7 +646,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -657,10 +657,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -671,10 +671,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -685,10 +685,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -696,13 +696,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -710,13 +710,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
@@ -727,10 +727,10 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
